--- a/Results/binding site of organisms/common_amino_acids_and_swapped_residues_for_various_organisms_in _the_study.xlsx
+++ b/Results/binding site of organisms/common_amino_acids_and_swapped_residues_for_various_organisms_in _the_study.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6103a522b033115/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6103a522b033115/Documents/GitHub/neuronal-AchR/Results/binding site of organisms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="11_F25DC773A252ABDACC104831F95B60B65BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE350DB1-89E0-4E58-B3D3-A9D5D11A1CDB}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="11_F25DC773A252ABDACC104831F95B60B65BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7360A67-7618-4056-BEFB-B277D0E40EDC}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1246,13 +1246,13 @@
     <t>(α4)2(β2)3 nAChRs</t>
   </si>
   <si>
-    <t>Supplementary Table : α7 and (α4)2(β2)3 nAChRs, common /swapped Agonist and Antagonist compounds binding sites between Human binding site from study and various animals</t>
-  </si>
-  <si>
     <t>α7 nAChRs</t>
   </si>
   <si>
     <t>The binding site amino acid residues are in the following path in GitHub as they are too many to show : neuronal-AchR\Results\binding site of organisms</t>
+  </si>
+  <si>
+    <t>Supplementary Table 21 : α7 and (α4)2(β2)3 nAChRs, common /swapped Agonist and Antagonist compounds binding sites between Human binding site from study and various animals</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1383,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1392,24 +1402,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1429,10 +1429,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1701,7 +1697,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1713,35 +1709,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="A1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1759,15 +1755,15 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>45</v>
+      <c r="E4" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
@@ -1780,12 +1776,12 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="8" t="s">
         <v>17</v>
       </c>
@@ -1797,12 +1793,12 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1814,12 +1810,12 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1831,12 +1827,12 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="18"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1848,12 +1844,12 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1865,12 +1861,12 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1882,12 +1878,12 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1899,12 +1895,12 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="18"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1913,11 +1909,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" hidden="1" customHeight="1">
-      <c r="D13" s="10"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -1930,10 +1926,10 @@
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
@@ -1951,20 +1947,20 @@
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1972,16 +1968,16 @@
       <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="15" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1989,16 +1985,16 @@
       <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="15" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2006,16 +2002,16 @@
       <c r="A19" s="1">
         <v>4</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="15" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2023,13 +2019,13 @@
       <c r="A20" s="1">
         <v>5</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="15" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G20" t="s">
@@ -2040,13 +2036,13 @@
       <c r="A21" s="1">
         <v>6</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="15" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G21" t="s">
@@ -2057,16 +2053,16 @@
       <c r="A22" s="1">
         <v>7</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="15" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2074,13 +2070,13 @@
       <c r="A23" s="1">
         <v>8</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="15" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G23" t="s">
@@ -2091,27 +2087,23 @@
       <c r="A24" s="1">
         <v>9</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="15" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="12" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E4:E12"/>
-    <mergeCell ref="E16:E24"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D4:D13"/>
     <mergeCell ref="B3:C3"/>
@@ -2121,6 +2113,12 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E4:E12"/>
+    <mergeCell ref="E16:E24"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="D16:D24"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B19:C19"/>
@@ -2131,8 +2129,6 @@
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
